--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_e2.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_e2.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahaines\Desktop\Method Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA167EC-3155-D443-AECC-2C946E85469C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="1110" windowWidth="20940" windowHeight="13935" activeTab="2"/>
+    <workbookView xWindow="700" yWindow="1120" windowWidth="20940" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
-    <sheet name="COND FC" sheetId="1" r:id="rId3"/>
+    <sheet name="COND FC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_Dist_Bin" hidden="1">'COND FC'!$I$38:$I$39</definedName>
@@ -24,9 +23,9 @@
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
     <definedName name="_Sort" hidden="1">'COND FC'!$B$4:$H$1755</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'COND FC'!$DH$1:$DM$18</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'COND FC'!$B:$C</definedName>
-    <definedName name="Print_Titles_MI" localSheetId="2">'COND FC'!$B:$C</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'COND FC'!$DH$1:$DM$18</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'COND FC'!$B:$C</definedName>
+    <definedName name="Print_Titles_MI" localSheetId="0">'COND FC'!$B:$C</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -321,6 +320,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -356,6 +372,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -531,61 +564,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr transitionEvaluation="1" codeName="Sheet3"/>
   <dimension ref="A1:HG32"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScaleNormal="87" workbookViewId="0">
       <pane xSplit="3" topLeftCell="GV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="HA3" sqref="HA3"/>
+      <selection pane="topRight" activeCell="GX18" sqref="GX18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="18"/>
-    <col min="2" max="2" width="8.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.109375" style="20" bestFit="1" customWidth="1"/>
-    <col min="4" max="63" width="8.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="65" max="101" width="8.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="103" max="105" width="8.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="106" max="107" width="7.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="108" max="114" width="8.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="115" max="16384" width="11.6640625" style="18"/>
+    <col min="1" max="1" width="11.7109375" style="18"/>
+    <col min="2" max="2" width="8.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="63" width="8.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="65" max="101" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="7.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="103" max="105" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="7.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="108" max="114" width="8.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="115" max="16384" width="11.7109375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:215" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:215" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>44194</v>
       </c>
     </row>
-    <row r="2" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
@@ -1717,7 +1720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>9</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
@@ -2061,7 +2064,7 @@
       <c r="HF4" s="13"/>
       <c r="HG4" s="13"/>
     </row>
-    <row r="5" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9">
         <v>10</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="7" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9">
         <v>21</v>
       </c>
@@ -2898,7 +2901,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9">
         <v>11</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9">
         <v>12</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9">
         <v>15</v>
       </c>
@@ -3542,7 +3545,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="11" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9">
         <v>16</v>
       </c>
@@ -3788,7 +3791,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="12" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
         <v>6</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
@@ -4084,7 +4087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
@@ -4168,7 +4171,7 @@
       <c r="CD14" s="11"/>
       <c r="CL14" s="12"/>
     </row>
-    <row r="15" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8"/>
       <c r="B15" s="9">
         <v>2</v>
@@ -4403,7 +4406,7 @@
       <c r="HF15" s="8"/>
       <c r="HG15" s="8"/>
     </row>
-    <row r="16" spans="1:215" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:215" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="13"/>
       <c r="B16" s="9">
         <v>14</v>
@@ -4624,7 +4627,7 @@
       <c r="HF16" s="17"/>
       <c r="HG16" s="17"/>
     </row>
-    <row r="17" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="9">
         <v>29</v>
@@ -4843,7 +4846,7 @@
       <c r="HF17" s="12"/>
       <c r="HG17" s="12"/>
     </row>
-    <row r="18" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
         <v>30</v>
       </c>
@@ -4922,7 +4925,7 @@
       <c r="BW18" s="10"/>
       <c r="BX18" s="10"/>
     </row>
-    <row r="19" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9">
         <v>17</v>
       </c>
@@ -5001,7 +5004,7 @@
       <c r="BW19" s="10"/>
       <c r="BX19" s="10"/>
     </row>
-    <row r="20" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="14" t="s">
         <v>4</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="14" t="s">
         <v>5</v>
       </c>
@@ -5165,7 +5168,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="22" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="14" t="s">
         <v>6</v>
       </c>
@@ -5247,7 +5250,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="23" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -5324,7 +5327,7 @@
       <c r="BW23" s="10"/>
       <c r="BX23" s="10"/>
     </row>
-    <row r="24" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -5401,7 +5404,7 @@
       <c r="BW24" s="10"/>
       <c r="BX24" s="10"/>
     </row>
-    <row r="25" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -5478,7 +5481,7 @@
       <c r="BW25" s="10"/>
       <c r="BX25" s="10"/>
     </row>
-    <row r="26" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -5555,7 +5558,7 @@
       <c r="BW26" s="10"/>
       <c r="BX26" s="10"/>
     </row>
-    <row r="27" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -5632,7 +5635,7 @@
       <c r="BW27" s="10"/>
       <c r="BX27" s="10"/>
     </row>
-    <row r="28" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -5697,7 +5700,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="10"/>
     </row>
-    <row r="29" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -5762,7 +5765,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="10"/>
     </row>
-    <row r="30" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -5827,7 +5830,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="10"/>
     </row>
-    <row r="31" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -5892,7 +5895,7 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="10"/>
     </row>
-    <row r="32" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
@@ -5958,7 +5961,7 @@
       <c r="BL32" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="A2:HG32">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:HG32">
     <sortCondition ref="A3:A32"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_e2.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_e2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10323"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/data_analytics_research/shellbase_with_usc/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA167EC-3155-D443-AECC-2C946E85469C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B62F947-DBA5-424D-87D4-A1F4BC338EE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="1120" windowWidth="20940" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,34 +16,23 @@
     <sheet name="COND FC" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_Dist_Bin" hidden="1">'COND FC'!$I$38:$I$39</definedName>
-    <definedName name="_Dist_Values" hidden="1">'COND FC'!$G$4:$G$32</definedName>
-    <definedName name="_Key1" hidden="1">'COND FC'!$B$1715</definedName>
-    <definedName name="_Key2" hidden="1">'COND FC'!$C$1716</definedName>
+    <definedName name="_Dist_Bin" hidden="1">'COND FC'!$I$37:$I$38</definedName>
+    <definedName name="_Dist_Values" hidden="1">'COND FC'!$G$4:$G$31</definedName>
+    <definedName name="_Key1" hidden="1">'COND FC'!$B$1714</definedName>
+    <definedName name="_Key2" hidden="1">'COND FC'!$C$1715</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
     <definedName name="_Order2" hidden="1">255</definedName>
-    <definedName name="_Sort" hidden="1">'COND FC'!$B$4:$H$1755</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'COND FC'!$DH$1:$DM$18</definedName>
+    <definedName name="_Sort" hidden="1">'COND FC'!$B$4:$H$1754</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'COND FC'!$DH$1:$DM$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'COND FC'!$B:$C</definedName>
     <definedName name="Print_Titles_MI" localSheetId="0">'COND FC'!$B:$C</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>STATION</t>
   </si>
@@ -566,11 +555,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr transitionEvaluation="1" codeName="Sheet3"/>
-  <dimension ref="A1:HG32"/>
+  <dimension ref="A1:HG31"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScaleNormal="87" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="GV1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="GX18" sqref="GX18"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1835,7 +1824,9 @@
       <c r="A4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -4087,8 +4078,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:215" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9">
+        <v>2</v>
+      </c>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
@@ -4120,19 +4114,31 @@
       <c r="AE14" s="11"/>
       <c r="AF14" s="11"/>
       <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
+      <c r="AH14" s="11">
+        <v>1.7</v>
+      </c>
       <c r="AI14" s="11"/>
       <c r="AJ14" s="11"/>
       <c r="AK14" s="11"/>
       <c r="AL14" s="11"/>
-      <c r="AM14" s="11"/>
-      <c r="AN14" s="11"/>
-      <c r="AO14" s="11"/>
+      <c r="AM14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="AN14" s="11">
+        <v>1.7</v>
+      </c>
+      <c r="AO14" s="11">
+        <v>1.7</v>
+      </c>
       <c r="AP14" s="11"/>
       <c r="AQ14" s="11"/>
       <c r="AR14" s="11"/>
-      <c r="AS14" s="11"/>
-      <c r="AT14" s="11"/>
+      <c r="AS14" s="11">
+        <v>4.5</v>
+      </c>
+      <c r="AT14" s="11">
+        <v>33</v>
+      </c>
       <c r="AU14" s="11"/>
       <c r="AV14" s="11"/>
       <c r="AW14" s="11"/>
@@ -4142,7 +4148,9 @@
       <c r="BA14" s="11"/>
       <c r="BB14" s="11"/>
       <c r="BC14" s="11"/>
-      <c r="BD14" s="11"/>
+      <c r="BD14" s="11">
+        <v>13</v>
+      </c>
       <c r="BE14" s="11"/>
       <c r="BF14" s="11"/>
       <c r="BG14" s="11"/>
@@ -4150,8 +4158,8 @@
       <c r="BI14" s="11"/>
       <c r="BJ14" s="11"/>
       <c r="BK14" s="11"/>
-      <c r="BL14" s="11"/>
-      <c r="BM14" s="11"/>
+      <c r="BL14" s="10"/>
+      <c r="BM14" s="10"/>
       <c r="BN14" s="11"/>
       <c r="BO14" s="11"/>
       <c r="BP14" s="11"/>
@@ -4159,7 +4167,9 @@
       <c r="BR14" s="11"/>
       <c r="BS14" s="11"/>
       <c r="BT14" s="11"/>
-      <c r="BU14" s="11"/>
+      <c r="BU14" s="11">
+        <v>6.8</v>
+      </c>
       <c r="BV14" s="11"/>
       <c r="BW14" s="11"/>
       <c r="BX14" s="11"/>
@@ -4169,14 +4179,146 @@
       <c r="CB14" s="11"/>
       <c r="CC14" s="11"/>
       <c r="CD14" s="11"/>
-      <c r="CL14" s="12"/>
+      <c r="CE14" s="8"/>
+      <c r="CF14" s="8"/>
+      <c r="CG14" s="8"/>
+      <c r="CH14" s="8"/>
+      <c r="CI14" s="8"/>
+      <c r="CJ14" s="8"/>
+      <c r="CK14" s="8"/>
+      <c r="CL14" s="8"/>
+      <c r="CM14" s="8"/>
+      <c r="CN14" s="8"/>
+      <c r="CO14" s="8"/>
+      <c r="CP14" s="8"/>
+      <c r="CQ14" s="8"/>
+      <c r="CR14" s="8"/>
+      <c r="CS14" s="8"/>
+      <c r="CT14" s="8"/>
+      <c r="CU14" s="8"/>
+      <c r="CV14" s="8"/>
+      <c r="CW14" s="8"/>
+      <c r="CX14" s="8"/>
+      <c r="CY14" s="8"/>
+      <c r="CZ14" s="8"/>
+      <c r="DA14" s="8"/>
+      <c r="DB14" s="8"/>
+      <c r="DC14" s="8"/>
+      <c r="DD14" s="8"/>
+      <c r="DE14" s="8"/>
+      <c r="DF14" s="8"/>
+      <c r="DG14" s="8"/>
+      <c r="DH14" s="8"/>
+      <c r="DI14" s="8"/>
+      <c r="DJ14" s="8"/>
+      <c r="DK14" s="8"/>
+      <c r="DL14" s="8"/>
+      <c r="DM14" s="8"/>
+      <c r="DN14" s="8"/>
+      <c r="DO14" s="8"/>
+      <c r="DP14" s="8"/>
+      <c r="DQ14" s="8"/>
+      <c r="DR14" s="8"/>
+      <c r="DS14" s="8"/>
+      <c r="DT14" s="8"/>
+      <c r="DU14" s="8"/>
+      <c r="DV14" s="8"/>
+      <c r="DW14" s="8"/>
+      <c r="DX14" s="8"/>
+      <c r="DY14" s="8"/>
+      <c r="DZ14" s="8"/>
+      <c r="EA14" s="8"/>
+      <c r="EB14" s="8"/>
+      <c r="EC14" s="8"/>
+      <c r="ED14" s="8"/>
+      <c r="EE14" s="8"/>
+      <c r="EF14" s="8"/>
+      <c r="EG14" s="8"/>
+      <c r="EH14" s="8"/>
+      <c r="EI14" s="8"/>
+      <c r="EJ14" s="8"/>
+      <c r="EK14" s="8"/>
+      <c r="EL14" s="8"/>
+      <c r="EM14" s="8"/>
+      <c r="EN14" s="8"/>
+      <c r="EO14" s="8"/>
+      <c r="EP14" s="8"/>
+      <c r="EQ14" s="8"/>
+      <c r="ER14" s="8"/>
+      <c r="ES14" s="8"/>
+      <c r="ET14" s="8"/>
+      <c r="EU14" s="8"/>
+      <c r="EV14" s="8"/>
+      <c r="EW14" s="8"/>
+      <c r="EX14" s="8"/>
+      <c r="EY14" s="8"/>
+      <c r="EZ14" s="8"/>
+      <c r="FA14" s="8"/>
+      <c r="FB14" s="8"/>
+      <c r="FC14" s="8"/>
+      <c r="FD14" s="8"/>
+      <c r="FE14" s="8"/>
+      <c r="FF14" s="8"/>
+      <c r="FG14" s="8"/>
+      <c r="FH14" s="8"/>
+      <c r="FI14" s="8"/>
+      <c r="FJ14" s="8"/>
+      <c r="FK14" s="8"/>
+      <c r="FL14" s="8"/>
+      <c r="FM14" s="8"/>
+      <c r="FN14" s="8"/>
+      <c r="FO14" s="8"/>
+      <c r="FP14" s="8"/>
+      <c r="FQ14" s="8"/>
+      <c r="FR14" s="8"/>
+      <c r="FS14" s="8"/>
+      <c r="FT14" s="8"/>
+      <c r="FU14" s="8"/>
+      <c r="FV14" s="8"/>
+      <c r="FW14" s="8"/>
+      <c r="FX14" s="8"/>
+      <c r="FY14" s="8"/>
+      <c r="FZ14" s="8"/>
+      <c r="GA14" s="8"/>
+      <c r="GB14" s="8"/>
+      <c r="GC14" s="8"/>
+      <c r="GD14" s="8"/>
+      <c r="GE14" s="8"/>
+      <c r="GF14" s="8"/>
+      <c r="GG14" s="8"/>
+      <c r="GH14" s="8"/>
+      <c r="GI14" s="8"/>
+      <c r="GJ14" s="8"/>
+      <c r="GK14" s="8"/>
+      <c r="GL14" s="8"/>
+      <c r="GM14" s="8"/>
+      <c r="GN14" s="8"/>
+      <c r="GO14" s="8"/>
+      <c r="GP14" s="8"/>
+      <c r="GQ14" s="8"/>
+      <c r="GR14" s="8"/>
+      <c r="GS14" s="8"/>
+      <c r="GT14" s="8"/>
+      <c r="GU14" s="8"/>
+      <c r="GV14" s="8"/>
+      <c r="GW14" s="8"/>
+      <c r="GX14" s="8"/>
+      <c r="GY14" s="8"/>
+      <c r="GZ14" s="8"/>
+      <c r="HA14" s="8"/>
+      <c r="HB14" s="8"/>
+      <c r="HC14" s="8"/>
+      <c r="HD14" s="8"/>
+      <c r="HE14" s="8"/>
+      <c r="HF14" s="8"/>
+      <c r="HG14" s="8"/>
     </row>
-    <row r="15" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+    <row r="15" spans="1:215" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
       <c r="B15" s="9">
-        <v>2</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="15"/>
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -4207,31 +4349,19 @@
       <c r="AE15" s="11"/>
       <c r="AF15" s="11"/>
       <c r="AG15" s="11"/>
-      <c r="AH15" s="11">
-        <v>1.7</v>
-      </c>
+      <c r="AH15" s="11"/>
       <c r="AI15" s="11"/>
       <c r="AJ15" s="11"/>
       <c r="AK15" s="11"/>
       <c r="AL15" s="11"/>
-      <c r="AM15" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>1.7</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>1.7</v>
-      </c>
+      <c r="AM15" s="11"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="11"/>
       <c r="AP15" s="11"/>
       <c r="AQ15" s="11"/>
       <c r="AR15" s="11"/>
-      <c r="AS15" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>33</v>
-      </c>
+      <c r="AS15" s="11"/>
+      <c r="AT15" s="11"/>
       <c r="AU15" s="11"/>
       <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
@@ -4241,177 +4371,175 @@
       <c r="BA15" s="11"/>
       <c r="BB15" s="11"/>
       <c r="BC15" s="11"/>
-      <c r="BD15" s="11">
-        <v>13</v>
-      </c>
+      <c r="BD15" s="11"/>
       <c r="BE15" s="11"/>
       <c r="BF15" s="11"/>
       <c r="BG15" s="11"/>
       <c r="BH15" s="11"/>
       <c r="BI15" s="11"/>
       <c r="BJ15" s="11"/>
-      <c r="BK15" s="11"/>
+      <c r="BK15" s="10"/>
       <c r="BL15" s="10"/>
       <c r="BM15" s="10"/>
       <c r="BN15" s="11"/>
       <c r="BO15" s="11"/>
       <c r="BP15" s="11"/>
       <c r="BQ15" s="11"/>
-      <c r="BR15" s="11"/>
-      <c r="BS15" s="11"/>
-      <c r="BT15" s="11"/>
-      <c r="BU15" s="11">
-        <v>6.8</v>
-      </c>
-      <c r="BV15" s="11"/>
-      <c r="BW15" s="11"/>
-      <c r="BX15" s="11"/>
-      <c r="BY15" s="11"/>
-      <c r="BZ15" s="11"/>
-      <c r="CA15" s="11"/>
-      <c r="CB15" s="11"/>
-      <c r="CC15" s="11"/>
-      <c r="CD15" s="11"/>
-      <c r="CE15" s="8"/>
-      <c r="CF15" s="8"/>
-      <c r="CG15" s="8"/>
-      <c r="CH15" s="8"/>
-      <c r="CI15" s="8"/>
-      <c r="CJ15" s="8"/>
-      <c r="CK15" s="8"/>
-      <c r="CL15" s="8"/>
-      <c r="CM15" s="8"/>
-      <c r="CN15" s="8"/>
-      <c r="CO15" s="8"/>
-      <c r="CP15" s="8"/>
-      <c r="CQ15" s="8"/>
-      <c r="CR15" s="8"/>
-      <c r="CS15" s="8"/>
-      <c r="CT15" s="8"/>
-      <c r="CU15" s="8"/>
-      <c r="CV15" s="8"/>
-      <c r="CW15" s="8"/>
-      <c r="CX15" s="8"/>
-      <c r="CY15" s="8"/>
-      <c r="CZ15" s="8"/>
-      <c r="DA15" s="8"/>
-      <c r="DB15" s="8"/>
-      <c r="DC15" s="8"/>
-      <c r="DD15" s="8"/>
-      <c r="DE15" s="8"/>
-      <c r="DF15" s="8"/>
-      <c r="DG15" s="8"/>
-      <c r="DH15" s="8"/>
-      <c r="DI15" s="8"/>
-      <c r="DJ15" s="8"/>
-      <c r="DK15" s="8"/>
-      <c r="DL15" s="8"/>
-      <c r="DM15" s="8"/>
-      <c r="DN15" s="8"/>
-      <c r="DO15" s="8"/>
-      <c r="DP15" s="8"/>
-      <c r="DQ15" s="8"/>
-      <c r="DR15" s="8"/>
-      <c r="DS15" s="8"/>
-      <c r="DT15" s="8"/>
-      <c r="DU15" s="8"/>
-      <c r="DV15" s="8"/>
-      <c r="DW15" s="8"/>
-      <c r="DX15" s="8"/>
-      <c r="DY15" s="8"/>
-      <c r="DZ15" s="8"/>
-      <c r="EA15" s="8"/>
-      <c r="EB15" s="8"/>
-      <c r="EC15" s="8"/>
-      <c r="ED15" s="8"/>
-      <c r="EE15" s="8"/>
-      <c r="EF15" s="8"/>
-      <c r="EG15" s="8"/>
-      <c r="EH15" s="8"/>
-      <c r="EI15" s="8"/>
-      <c r="EJ15" s="8"/>
-      <c r="EK15" s="8"/>
-      <c r="EL15" s="8"/>
-      <c r="EM15" s="8"/>
-      <c r="EN15" s="8"/>
-      <c r="EO15" s="8"/>
-      <c r="EP15" s="8"/>
-      <c r="EQ15" s="8"/>
-      <c r="ER15" s="8"/>
-      <c r="ES15" s="8"/>
-      <c r="ET15" s="8"/>
-      <c r="EU15" s="8"/>
-      <c r="EV15" s="8"/>
-      <c r="EW15" s="8"/>
-      <c r="EX15" s="8"/>
-      <c r="EY15" s="8"/>
-      <c r="EZ15" s="8"/>
-      <c r="FA15" s="8"/>
-      <c r="FB15" s="8"/>
-      <c r="FC15" s="8"/>
-      <c r="FD15" s="8"/>
-      <c r="FE15" s="8"/>
-      <c r="FF15" s="8"/>
-      <c r="FG15" s="8"/>
-      <c r="FH15" s="8"/>
-      <c r="FI15" s="8"/>
-      <c r="FJ15" s="8"/>
-      <c r="FK15" s="8"/>
-      <c r="FL15" s="8"/>
-      <c r="FM15" s="8"/>
-      <c r="FN15" s="8"/>
-      <c r="FO15" s="8"/>
-      <c r="FP15" s="8"/>
-      <c r="FQ15" s="8"/>
-      <c r="FR15" s="8"/>
-      <c r="FS15" s="8"/>
-      <c r="FT15" s="8"/>
-      <c r="FU15" s="8"/>
-      <c r="FV15" s="8"/>
-      <c r="FW15" s="8"/>
-      <c r="FX15" s="8"/>
-      <c r="FY15" s="8"/>
-      <c r="FZ15" s="8"/>
-      <c r="GA15" s="8"/>
-      <c r="GB15" s="8"/>
-      <c r="GC15" s="8"/>
-      <c r="GD15" s="8"/>
-      <c r="GE15" s="8"/>
-      <c r="GF15" s="8"/>
-      <c r="GG15" s="8"/>
-      <c r="GH15" s="8"/>
-      <c r="GI15" s="8"/>
-      <c r="GJ15" s="8"/>
-      <c r="GK15" s="8"/>
-      <c r="GL15" s="8"/>
-      <c r="GM15" s="8"/>
-      <c r="GN15" s="8"/>
-      <c r="GO15" s="8"/>
-      <c r="GP15" s="8"/>
-      <c r="GQ15" s="8"/>
-      <c r="GR15" s="8"/>
-      <c r="GS15" s="8"/>
-      <c r="GT15" s="8"/>
-      <c r="GU15" s="8"/>
-      <c r="GV15" s="8"/>
-      <c r="GW15" s="8"/>
-      <c r="GX15" s="8"/>
-      <c r="GY15" s="8"/>
-      <c r="GZ15" s="8"/>
-      <c r="HA15" s="8"/>
-      <c r="HB15" s="8"/>
-      <c r="HC15" s="8"/>
-      <c r="HD15" s="8"/>
-      <c r="HE15" s="8"/>
-      <c r="HF15" s="8"/>
-      <c r="HG15" s="8"/>
+      <c r="BR15" s="10"/>
+      <c r="BS15" s="10"/>
+      <c r="BT15" s="10"/>
+      <c r="BU15" s="10"/>
+      <c r="BV15" s="10"/>
+      <c r="BW15" s="10"/>
+      <c r="BX15" s="10"/>
+      <c r="BY15" s="13"/>
+      <c r="BZ15" s="13"/>
+      <c r="CA15" s="13"/>
+      <c r="CB15" s="13"/>
+      <c r="CC15" s="13"/>
+      <c r="CD15" s="13"/>
+      <c r="CE15" s="13"/>
+      <c r="CF15" s="17"/>
+      <c r="CG15" s="17"/>
+      <c r="CH15" s="17"/>
+      <c r="CI15" s="17"/>
+      <c r="CJ15" s="17"/>
+      <c r="CK15" s="17"/>
+      <c r="CL15" s="17"/>
+      <c r="CM15" s="17"/>
+      <c r="CN15" s="17"/>
+      <c r="CO15" s="17"/>
+      <c r="CP15" s="17"/>
+      <c r="CQ15" s="17"/>
+      <c r="CR15" s="17"/>
+      <c r="CS15" s="17"/>
+      <c r="CT15" s="17"/>
+      <c r="CU15" s="17"/>
+      <c r="CV15" s="17"/>
+      <c r="CW15" s="17"/>
+      <c r="CX15" s="17"/>
+      <c r="CY15" s="17"/>
+      <c r="CZ15" s="17"/>
+      <c r="DA15" s="17"/>
+      <c r="DB15" s="17"/>
+      <c r="DC15" s="17"/>
+      <c r="DD15" s="17"/>
+      <c r="DE15" s="17"/>
+      <c r="DF15" s="17"/>
+      <c r="DG15" s="17"/>
+      <c r="DH15" s="17"/>
+      <c r="DI15" s="17"/>
+      <c r="DJ15" s="17"/>
+      <c r="DK15" s="17"/>
+      <c r="DL15" s="17"/>
+      <c r="DM15" s="17"/>
+      <c r="DN15" s="17"/>
+      <c r="DO15" s="17"/>
+      <c r="DP15" s="17"/>
+      <c r="DQ15" s="17"/>
+      <c r="DR15" s="17"/>
+      <c r="DS15" s="17"/>
+      <c r="DT15" s="17"/>
+      <c r="DU15" s="17"/>
+      <c r="DV15" s="17"/>
+      <c r="DW15" s="17"/>
+      <c r="DX15" s="17"/>
+      <c r="DY15" s="17"/>
+      <c r="DZ15" s="17"/>
+      <c r="EA15" s="17"/>
+      <c r="EB15" s="17"/>
+      <c r="EC15" s="17"/>
+      <c r="ED15" s="17"/>
+      <c r="EE15" s="17"/>
+      <c r="EF15" s="17"/>
+      <c r="EG15" s="17"/>
+      <c r="EH15" s="17"/>
+      <c r="EI15" s="17"/>
+      <c r="EJ15" s="17"/>
+      <c r="EK15" s="17"/>
+      <c r="EL15" s="17">
+        <v>1.7</v>
+      </c>
+      <c r="EM15" s="17"/>
+      <c r="EN15" s="17"/>
+      <c r="EO15" s="17"/>
+      <c r="EP15" s="17"/>
+      <c r="EQ15" s="17"/>
+      <c r="ER15" s="17"/>
+      <c r="ES15" s="17"/>
+      <c r="ET15" s="17"/>
+      <c r="EU15" s="17"/>
+      <c r="EV15" s="17"/>
+      <c r="EW15" s="17"/>
+      <c r="EX15" s="17"/>
+      <c r="EY15" s="17"/>
+      <c r="EZ15" s="17"/>
+      <c r="FA15" s="17"/>
+      <c r="FB15" s="17"/>
+      <c r="FC15" s="17"/>
+      <c r="FD15" s="17"/>
+      <c r="FE15" s="17"/>
+      <c r="FF15" s="17"/>
+      <c r="FG15" s="17"/>
+      <c r="FH15" s="17"/>
+      <c r="FI15" s="17"/>
+      <c r="FJ15" s="17"/>
+      <c r="FK15" s="17"/>
+      <c r="FL15" s="17"/>
+      <c r="FM15" s="17"/>
+      <c r="FN15" s="17"/>
+      <c r="FO15" s="17"/>
+      <c r="FP15" s="17"/>
+      <c r="FQ15" s="17"/>
+      <c r="FR15" s="17"/>
+      <c r="FS15" s="17"/>
+      <c r="FT15" s="17"/>
+      <c r="FU15" s="17"/>
+      <c r="FV15" s="17"/>
+      <c r="FW15" s="17"/>
+      <c r="FX15" s="17"/>
+      <c r="FY15" s="17"/>
+      <c r="FZ15" s="17"/>
+      <c r="GA15" s="17"/>
+      <c r="GB15" s="17"/>
+      <c r="GC15" s="17"/>
+      <c r="GD15" s="17"/>
+      <c r="GE15" s="17"/>
+      <c r="GF15" s="17"/>
+      <c r="GG15" s="17"/>
+      <c r="GH15" s="17"/>
+      <c r="GI15" s="17"/>
+      <c r="GJ15" s="17"/>
+      <c r="GK15" s="17"/>
+      <c r="GL15" s="17"/>
+      <c r="GM15" s="17"/>
+      <c r="GN15" s="17"/>
+      <c r="GO15" s="17"/>
+      <c r="GP15" s="17"/>
+      <c r="GQ15" s="17"/>
+      <c r="GR15" s="17"/>
+      <c r="GS15" s="17"/>
+      <c r="GT15" s="17"/>
+      <c r="GU15" s="17"/>
+      <c r="GV15" s="17"/>
+      <c r="GW15" s="17"/>
+      <c r="GX15" s="17"/>
+      <c r="GY15" s="17"/>
+      <c r="GZ15" s="17"/>
+      <c r="HA15" s="17"/>
+      <c r="HB15" s="17"/>
+      <c r="HC15" s="17"/>
+      <c r="HD15" s="17"/>
+      <c r="HE15" s="17"/>
+      <c r="HF15" s="17"/>
+      <c r="HG15" s="17"/>
     </row>
-    <row r="16" spans="1:215" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="12"/>
       <c r="B16" s="9">
-        <v>14</v>
-      </c>
-      <c r="C16" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -4471,168 +4599,165 @@
       <c r="BH16" s="11"/>
       <c r="BI16" s="11"/>
       <c r="BJ16" s="11"/>
-      <c r="BK16" s="10"/>
+      <c r="BK16" s="11"/>
       <c r="BL16" s="10"/>
       <c r="BM16" s="10"/>
       <c r="BN16" s="11"/>
       <c r="BO16" s="11"/>
       <c r="BP16" s="11"/>
       <c r="BQ16" s="11"/>
-      <c r="BR16" s="10"/>
-      <c r="BS16" s="10"/>
-      <c r="BT16" s="10"/>
-      <c r="BU16" s="10"/>
-      <c r="BV16" s="10"/>
-      <c r="BW16" s="10"/>
-      <c r="BX16" s="10"/>
-      <c r="BY16" s="13"/>
-      <c r="BZ16" s="13"/>
-      <c r="CA16" s="13"/>
-      <c r="CB16" s="13"/>
-      <c r="CC16" s="13"/>
-      <c r="CD16" s="13"/>
-      <c r="CE16" s="13"/>
-      <c r="CF16" s="17"/>
-      <c r="CG16" s="17"/>
-      <c r="CH16" s="17"/>
-      <c r="CI16" s="17"/>
-      <c r="CJ16" s="17"/>
-      <c r="CK16" s="17"/>
-      <c r="CL16" s="17"/>
-      <c r="CM16" s="17"/>
-      <c r="CN16" s="17"/>
-      <c r="CO16" s="17"/>
-      <c r="CP16" s="17"/>
-      <c r="CQ16" s="17"/>
-      <c r="CR16" s="17"/>
-      <c r="CS16" s="17"/>
-      <c r="CT16" s="17"/>
-      <c r="CU16" s="17"/>
-      <c r="CV16" s="17"/>
-      <c r="CW16" s="17"/>
-      <c r="CX16" s="17"/>
-      <c r="CY16" s="17"/>
-      <c r="CZ16" s="17"/>
-      <c r="DA16" s="17"/>
-      <c r="DB16" s="17"/>
-      <c r="DC16" s="17"/>
-      <c r="DD16" s="17"/>
-      <c r="DE16" s="17"/>
-      <c r="DF16" s="17"/>
-      <c r="DG16" s="17"/>
-      <c r="DH16" s="17"/>
-      <c r="DI16" s="17"/>
-      <c r="DJ16" s="17"/>
-      <c r="DK16" s="17"/>
-      <c r="DL16" s="17"/>
-      <c r="DM16" s="17"/>
-      <c r="DN16" s="17"/>
-      <c r="DO16" s="17"/>
-      <c r="DP16" s="17"/>
-      <c r="DQ16" s="17"/>
-      <c r="DR16" s="17"/>
-      <c r="DS16" s="17"/>
-      <c r="DT16" s="17"/>
-      <c r="DU16" s="17"/>
-      <c r="DV16" s="17"/>
-      <c r="DW16" s="17"/>
-      <c r="DX16" s="17"/>
-      <c r="DY16" s="17"/>
-      <c r="DZ16" s="17"/>
-      <c r="EA16" s="17"/>
-      <c r="EB16" s="17"/>
-      <c r="EC16" s="17"/>
-      <c r="ED16" s="17"/>
-      <c r="EE16" s="17"/>
-      <c r="EF16" s="17"/>
-      <c r="EG16" s="17"/>
-      <c r="EH16" s="17"/>
-      <c r="EI16" s="17"/>
-      <c r="EJ16" s="17"/>
-      <c r="EK16" s="17"/>
-      <c r="EL16" s="17">
-        <v>1.7</v>
-      </c>
-      <c r="EM16" s="17"/>
-      <c r="EN16" s="17"/>
-      <c r="EO16" s="17"/>
-      <c r="EP16" s="17"/>
-      <c r="EQ16" s="17"/>
-      <c r="ER16" s="17"/>
-      <c r="ES16" s="17"/>
-      <c r="ET16" s="17"/>
-      <c r="EU16" s="17"/>
-      <c r="EV16" s="17"/>
-      <c r="EW16" s="17"/>
-      <c r="EX16" s="17"/>
-      <c r="EY16" s="17"/>
-      <c r="EZ16" s="17"/>
-      <c r="FA16" s="17"/>
-      <c r="FB16" s="17"/>
-      <c r="FC16" s="17"/>
-      <c r="FD16" s="17"/>
-      <c r="FE16" s="17"/>
-      <c r="FF16" s="17"/>
-      <c r="FG16" s="17"/>
-      <c r="FH16" s="17"/>
-      <c r="FI16" s="17"/>
-      <c r="FJ16" s="17"/>
-      <c r="FK16" s="17"/>
-      <c r="FL16" s="17"/>
-      <c r="FM16" s="17"/>
-      <c r="FN16" s="17"/>
-      <c r="FO16" s="17"/>
-      <c r="FP16" s="17"/>
-      <c r="FQ16" s="17"/>
-      <c r="FR16" s="17"/>
-      <c r="FS16" s="17"/>
-      <c r="FT16" s="17"/>
-      <c r="FU16" s="17"/>
-      <c r="FV16" s="17"/>
-      <c r="FW16" s="17"/>
-      <c r="FX16" s="17"/>
-      <c r="FY16" s="17"/>
-      <c r="FZ16" s="17"/>
-      <c r="GA16" s="17"/>
-      <c r="GB16" s="17"/>
-      <c r="GC16" s="17"/>
-      <c r="GD16" s="17"/>
-      <c r="GE16" s="17"/>
-      <c r="GF16" s="17"/>
-      <c r="GG16" s="17"/>
-      <c r="GH16" s="17"/>
-      <c r="GI16" s="17"/>
-      <c r="GJ16" s="17"/>
-      <c r="GK16" s="17"/>
-      <c r="GL16" s="17"/>
-      <c r="GM16" s="17"/>
-      <c r="GN16" s="17"/>
-      <c r="GO16" s="17"/>
-      <c r="GP16" s="17"/>
-      <c r="GQ16" s="17"/>
-      <c r="GR16" s="17"/>
-      <c r="GS16" s="17"/>
-      <c r="GT16" s="17"/>
-      <c r="GU16" s="17"/>
-      <c r="GV16" s="17"/>
-      <c r="GW16" s="17"/>
-      <c r="GX16" s="17"/>
-      <c r="GY16" s="17"/>
-      <c r="GZ16" s="17"/>
-      <c r="HA16" s="17"/>
-      <c r="HB16" s="17"/>
-      <c r="HC16" s="17"/>
-      <c r="HD16" s="17"/>
-      <c r="HE16" s="17"/>
-      <c r="HF16" s="17"/>
-      <c r="HG16" s="17"/>
+      <c r="BR16" s="11"/>
+      <c r="BS16" s="11"/>
+      <c r="BT16" s="11"/>
+      <c r="BU16" s="11"/>
+      <c r="BV16" s="11"/>
+      <c r="BW16" s="11"/>
+      <c r="BX16" s="11"/>
+      <c r="BY16" s="11"/>
+      <c r="BZ16" s="11"/>
+      <c r="CA16" s="11"/>
+      <c r="CB16" s="11"/>
+      <c r="CC16" s="11"/>
+      <c r="CD16" s="11"/>
+      <c r="CE16" s="12"/>
+      <c r="CF16" s="12"/>
+      <c r="CG16" s="12"/>
+      <c r="CH16" s="12"/>
+      <c r="CI16" s="12"/>
+      <c r="CJ16" s="12"/>
+      <c r="CK16" s="12"/>
+      <c r="CL16" s="8"/>
+      <c r="CM16" s="12"/>
+      <c r="CN16" s="12"/>
+      <c r="CO16" s="12"/>
+      <c r="CP16" s="12"/>
+      <c r="CQ16" s="12"/>
+      <c r="CR16" s="12"/>
+      <c r="CS16" s="12"/>
+      <c r="CT16" s="12"/>
+      <c r="CU16" s="12"/>
+      <c r="CV16" s="12"/>
+      <c r="CW16" s="12"/>
+      <c r="CX16" s="12"/>
+      <c r="CY16" s="12"/>
+      <c r="CZ16" s="12"/>
+      <c r="DA16" s="12"/>
+      <c r="DB16" s="12"/>
+      <c r="DC16" s="12"/>
+      <c r="DD16" s="12"/>
+      <c r="DE16" s="12"/>
+      <c r="DF16" s="12"/>
+      <c r="DG16" s="12"/>
+      <c r="DH16" s="12"/>
+      <c r="DI16" s="12"/>
+      <c r="DJ16" s="12"/>
+      <c r="DK16" s="12"/>
+      <c r="DL16" s="12"/>
+      <c r="DM16" s="12"/>
+      <c r="DN16" s="12"/>
+      <c r="DO16" s="12"/>
+      <c r="DP16" s="12"/>
+      <c r="DQ16" s="12"/>
+      <c r="DR16" s="12"/>
+      <c r="DS16" s="12"/>
+      <c r="DT16" s="12"/>
+      <c r="DU16" s="12"/>
+      <c r="DV16" s="12"/>
+      <c r="DW16" s="12"/>
+      <c r="DX16" s="12"/>
+      <c r="DY16" s="12"/>
+      <c r="DZ16" s="12"/>
+      <c r="EA16" s="12"/>
+      <c r="EB16" s="12"/>
+      <c r="EC16" s="12"/>
+      <c r="ED16" s="12"/>
+      <c r="EE16" s="12"/>
+      <c r="EF16" s="12"/>
+      <c r="EG16" s="12"/>
+      <c r="EH16" s="12"/>
+      <c r="EI16" s="12"/>
+      <c r="EJ16" s="12"/>
+      <c r="EK16" s="12"/>
+      <c r="EL16" s="12"/>
+      <c r="EM16" s="12"/>
+      <c r="EN16" s="12"/>
+      <c r="EO16" s="12"/>
+      <c r="EP16" s="12"/>
+      <c r="EQ16" s="12"/>
+      <c r="ER16" s="12"/>
+      <c r="ES16" s="12"/>
+      <c r="ET16" s="12"/>
+      <c r="EU16" s="12"/>
+      <c r="EV16" s="12"/>
+      <c r="EW16" s="12"/>
+      <c r="EX16" s="12"/>
+      <c r="EY16" s="12"/>
+      <c r="EZ16" s="12"/>
+      <c r="FA16" s="12"/>
+      <c r="FB16" s="12"/>
+      <c r="FC16" s="12"/>
+      <c r="FD16" s="12"/>
+      <c r="FE16" s="12"/>
+      <c r="FF16" s="12"/>
+      <c r="FG16" s="12"/>
+      <c r="FH16" s="12"/>
+      <c r="FI16" s="12"/>
+      <c r="FJ16" s="12"/>
+      <c r="FK16" s="12"/>
+      <c r="FL16" s="12"/>
+      <c r="FM16" s="12"/>
+      <c r="FN16" s="12"/>
+      <c r="FO16" s="12"/>
+      <c r="FP16" s="12"/>
+      <c r="FQ16" s="12"/>
+      <c r="FR16" s="12"/>
+      <c r="FS16" s="12"/>
+      <c r="FT16" s="12"/>
+      <c r="FU16" s="12"/>
+      <c r="FV16" s="12"/>
+      <c r="FW16" s="12"/>
+      <c r="FX16" s="12"/>
+      <c r="FY16" s="12"/>
+      <c r="FZ16" s="12"/>
+      <c r="GA16" s="12"/>
+      <c r="GB16" s="12"/>
+      <c r="GC16" s="12"/>
+      <c r="GD16" s="12"/>
+      <c r="GE16" s="12"/>
+      <c r="GF16" s="12"/>
+      <c r="GG16" s="12"/>
+      <c r="GH16" s="12"/>
+      <c r="GI16" s="12"/>
+      <c r="GJ16" s="12"/>
+      <c r="GK16" s="12"/>
+      <c r="GL16" s="12"/>
+      <c r="GM16" s="12"/>
+      <c r="GN16" s="12"/>
+      <c r="GO16" s="12"/>
+      <c r="GP16" s="12"/>
+      <c r="GQ16" s="12"/>
+      <c r="GR16" s="12"/>
+      <c r="GS16" s="12"/>
+      <c r="GT16" s="12"/>
+      <c r="GU16" s="12"/>
+      <c r="GV16" s="12"/>
+      <c r="GW16" s="12"/>
+      <c r="GX16" s="12"/>
+      <c r="GY16" s="12"/>
+      <c r="GZ16" s="12"/>
+      <c r="HA16" s="12"/>
+      <c r="HB16" s="12"/>
+      <c r="HC16" s="12"/>
+      <c r="HD16" s="12"/>
+      <c r="HE16" s="12"/>
+      <c r="HF16" s="12"/>
+      <c r="HG16" s="12"/>
     </row>
-    <row r="17" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
+    <row r="17" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9">
-        <v>29</v>
-      </c>
-      <c r="C17" s="10"/>
+        <v>30</v>
+      </c>
+      <c r="C17" s="15"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
@@ -4692,224 +4817,85 @@
       <c r="BH17" s="11"/>
       <c r="BI17" s="11"/>
       <c r="BJ17" s="11"/>
-      <c r="BK17" s="11"/>
+      <c r="BK17" s="10"/>
       <c r="BL17" s="10"/>
       <c r="BM17" s="10"/>
-      <c r="BN17" s="11"/>
-      <c r="BO17" s="11"/>
-      <c r="BP17" s="11"/>
-      <c r="BQ17" s="11"/>
-      <c r="BR17" s="11"/>
-      <c r="BS17" s="11"/>
-      <c r="BT17" s="11"/>
-      <c r="BU17" s="11"/>
-      <c r="BV17" s="11"/>
-      <c r="BW17" s="11"/>
-      <c r="BX17" s="11"/>
-      <c r="BY17" s="11"/>
-      <c r="BZ17" s="11"/>
-      <c r="CA17" s="11"/>
-      <c r="CB17" s="11"/>
-      <c r="CC17" s="11"/>
-      <c r="CD17" s="11"/>
-      <c r="CE17" s="12"/>
-      <c r="CF17" s="12"/>
-      <c r="CG17" s="12"/>
-      <c r="CH17" s="12"/>
-      <c r="CI17" s="12"/>
-      <c r="CJ17" s="12"/>
-      <c r="CK17" s="12"/>
-      <c r="CL17" s="8"/>
-      <c r="CM17" s="12"/>
-      <c r="CN17" s="12"/>
-      <c r="CO17" s="12"/>
-      <c r="CP17" s="12"/>
-      <c r="CQ17" s="12"/>
-      <c r="CR17" s="12"/>
-      <c r="CS17" s="12"/>
-      <c r="CT17" s="12"/>
-      <c r="CU17" s="12"/>
-      <c r="CV17" s="12"/>
-      <c r="CW17" s="12"/>
-      <c r="CX17" s="12"/>
-      <c r="CY17" s="12"/>
-      <c r="CZ17" s="12"/>
-      <c r="DA17" s="12"/>
-      <c r="DB17" s="12"/>
-      <c r="DC17" s="12"/>
-      <c r="DD17" s="12"/>
-      <c r="DE17" s="12"/>
-      <c r="DF17" s="12"/>
-      <c r="DG17" s="12"/>
-      <c r="DH17" s="12"/>
-      <c r="DI17" s="12"/>
-      <c r="DJ17" s="12"/>
-      <c r="DK17" s="12"/>
-      <c r="DL17" s="12"/>
-      <c r="DM17" s="12"/>
-      <c r="DN17" s="12"/>
-      <c r="DO17" s="12"/>
-      <c r="DP17" s="12"/>
-      <c r="DQ17" s="12"/>
-      <c r="DR17" s="12"/>
-      <c r="DS17" s="12"/>
-      <c r="DT17" s="12"/>
-      <c r="DU17" s="12"/>
-      <c r="DV17" s="12"/>
-      <c r="DW17" s="12"/>
-      <c r="DX17" s="12"/>
-      <c r="DY17" s="12"/>
-      <c r="DZ17" s="12"/>
-      <c r="EA17" s="12"/>
-      <c r="EB17" s="12"/>
-      <c r="EC17" s="12"/>
-      <c r="ED17" s="12"/>
-      <c r="EE17" s="12"/>
-      <c r="EF17" s="12"/>
-      <c r="EG17" s="12"/>
-      <c r="EH17" s="12"/>
-      <c r="EI17" s="12"/>
-      <c r="EJ17" s="12"/>
-      <c r="EK17" s="12"/>
-      <c r="EL17" s="12"/>
-      <c r="EM17" s="12"/>
-      <c r="EN17" s="12"/>
-      <c r="EO17" s="12"/>
-      <c r="EP17" s="12"/>
-      <c r="EQ17" s="12"/>
-      <c r="ER17" s="12"/>
-      <c r="ES17" s="12"/>
-      <c r="ET17" s="12"/>
-      <c r="EU17" s="12"/>
-      <c r="EV17" s="12"/>
-      <c r="EW17" s="12"/>
-      <c r="EX17" s="12"/>
-      <c r="EY17" s="12"/>
-      <c r="EZ17" s="12"/>
-      <c r="FA17" s="12"/>
-      <c r="FB17" s="12"/>
-      <c r="FC17" s="12"/>
-      <c r="FD17" s="12"/>
-      <c r="FE17" s="12"/>
-      <c r="FF17" s="12"/>
-      <c r="FG17" s="12"/>
-      <c r="FH17" s="12"/>
-      <c r="FI17" s="12"/>
-      <c r="FJ17" s="12"/>
-      <c r="FK17" s="12"/>
-      <c r="FL17" s="12"/>
-      <c r="FM17" s="12"/>
-      <c r="FN17" s="12"/>
-      <c r="FO17" s="12"/>
-      <c r="FP17" s="12"/>
-      <c r="FQ17" s="12"/>
-      <c r="FR17" s="12"/>
-      <c r="FS17" s="12"/>
-      <c r="FT17" s="12"/>
-      <c r="FU17" s="12"/>
-      <c r="FV17" s="12"/>
-      <c r="FW17" s="12"/>
-      <c r="FX17" s="12"/>
-      <c r="FY17" s="12"/>
-      <c r="FZ17" s="12"/>
-      <c r="GA17" s="12"/>
-      <c r="GB17" s="12"/>
-      <c r="GC17" s="12"/>
-      <c r="GD17" s="12"/>
-      <c r="GE17" s="12"/>
-      <c r="GF17" s="12"/>
-      <c r="GG17" s="12"/>
-      <c r="GH17" s="12"/>
-      <c r="GI17" s="12"/>
-      <c r="GJ17" s="12"/>
-      <c r="GK17" s="12"/>
-      <c r="GL17" s="12"/>
-      <c r="GM17" s="12"/>
-      <c r="GN17" s="12"/>
-      <c r="GO17" s="12"/>
-      <c r="GP17" s="12"/>
-      <c r="GQ17" s="12"/>
-      <c r="GR17" s="12"/>
-      <c r="GS17" s="12"/>
-      <c r="GT17" s="12"/>
-      <c r="GU17" s="12"/>
-      <c r="GV17" s="12"/>
-      <c r="GW17" s="12"/>
-      <c r="GX17" s="12"/>
-      <c r="GY17" s="12"/>
-      <c r="GZ17" s="12"/>
-      <c r="HA17" s="12"/>
-      <c r="HB17" s="12"/>
-      <c r="HC17" s="12"/>
-      <c r="HD17" s="12"/>
-      <c r="HE17" s="12"/>
-      <c r="HF17" s="12"/>
-      <c r="HG17" s="12"/>
+      <c r="BN17" s="10"/>
+      <c r="BO17" s="10"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="10"/>
+      <c r="BR17" s="10"/>
+      <c r="BS17" s="10"/>
+      <c r="BT17" s="10"/>
+      <c r="BU17" s="10"/>
+      <c r="BV17" s="10"/>
+      <c r="BW17" s="10"/>
+      <c r="BX17" s="10"/>
     </row>
-    <row r="18" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C18" s="15"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
-      <c r="AH18" s="11"/>
-      <c r="AI18" s="11"/>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="11"/>
-      <c r="AL18" s="11"/>
-      <c r="AM18" s="11"/>
-      <c r="AN18" s="11"/>
-      <c r="AO18" s="11"/>
-      <c r="AP18" s="11"/>
-      <c r="AQ18" s="11"/>
-      <c r="AR18" s="11"/>
-      <c r="AS18" s="11"/>
-      <c r="AT18" s="11"/>
-      <c r="AU18" s="11"/>
-      <c r="AV18" s="11"/>
-      <c r="AW18" s="11"/>
-      <c r="AX18" s="11"/>
-      <c r="AY18" s="11"/>
-      <c r="AZ18" s="11"/>
-      <c r="BA18" s="11"/>
-      <c r="BB18" s="11"/>
-      <c r="BC18" s="11"/>
-      <c r="BD18" s="11"/>
-      <c r="BE18" s="11"/>
-      <c r="BF18" s="11"/>
-      <c r="BG18" s="11"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="11"/>
-      <c r="BJ18" s="11"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="15"/>
+      <c r="V18" s="15"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="15"/>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15"/>
+      <c r="AD18" s="15"/>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15"/>
+      <c r="AG18" s="15"/>
+      <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
+      <c r="AJ18" s="15"/>
+      <c r="AK18" s="15"/>
+      <c r="AL18" s="15"/>
+      <c r="AM18" s="15"/>
+      <c r="AN18" s="15"/>
+      <c r="AO18" s="15"/>
+      <c r="AP18" s="15"/>
+      <c r="AQ18" s="15"/>
+      <c r="AR18" s="15"/>
+      <c r="AS18" s="15"/>
+      <c r="AT18" s="15"/>
+      <c r="AU18" s="15"/>
+      <c r="AV18" s="15"/>
+      <c r="AW18" s="15"/>
+      <c r="AX18" s="15"/>
+      <c r="AY18" s="15"/>
+      <c r="AZ18" s="15"/>
+      <c r="BA18" s="15"/>
+      <c r="BB18" s="15"/>
+      <c r="BC18" s="15"/>
+      <c r="BD18" s="15"/>
+      <c r="BE18" s="15"/>
+      <c r="BF18" s="15"/>
+      <c r="BG18" s="15"/>
+      <c r="BH18" s="15"/>
+      <c r="BI18" s="15"/>
+      <c r="BJ18" s="15"/>
       <c r="BK18" s="10"/>
       <c r="BL18" s="10"/>
       <c r="BM18" s="10"/>
@@ -4925,9 +4911,9 @@
       <c r="BW18" s="10"/>
       <c r="BX18" s="10"/>
     </row>
-    <row r="19" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
-        <v>17</v>
+    <row r="19" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="14" t="s">
+        <v>4</v>
       </c>
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
@@ -5003,10 +4989,13 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="10"/>
+      <c r="EA19" s="13">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -5083,12 +5072,12 @@
       <c r="BW20" s="10"/>
       <c r="BX20" s="10"/>
       <c r="EA20" s="13">
-        <v>2</v>
+        <v>1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -5165,13 +5154,11 @@
       <c r="BW21" s="10"/>
       <c r="BX21" s="10"/>
       <c r="EA21" s="13">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
     </row>
-    <row r="22" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="14" t="s">
-        <v>6</v>
-      </c>
+    <row r="22" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="9"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -5246,11 +5233,8 @@
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
       <c r="BX22" s="10"/>
-      <c r="EA22" s="13">
-        <v>4.5</v>
-      </c>
     </row>
-    <row r="23" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -5327,7 +5311,7 @@
       <c r="BW23" s="10"/>
       <c r="BX23" s="10"/>
     </row>
-    <row r="24" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
@@ -5404,7 +5388,7 @@
       <c r="BW24" s="10"/>
       <c r="BX24" s="10"/>
     </row>
-    <row r="25" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -5481,7 +5465,7 @@
       <c r="BW25" s="10"/>
       <c r="BX25" s="10"/>
     </row>
-    <row r="26" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
@@ -5558,7 +5542,7 @@
       <c r="BW26" s="10"/>
       <c r="BX26" s="10"/>
     </row>
-    <row r="27" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
@@ -5620,22 +5604,10 @@
       <c r="BH27" s="15"/>
       <c r="BI27" s="15"/>
       <c r="BJ27" s="15"/>
-      <c r="BK27" s="10"/>
+      <c r="BK27" s="15"/>
       <c r="BL27" s="10"/>
-      <c r="BM27" s="10"/>
-      <c r="BN27" s="10"/>
-      <c r="BO27" s="10"/>
-      <c r="BP27" s="10"/>
-      <c r="BQ27" s="10"/>
-      <c r="BR27" s="10"/>
-      <c r="BS27" s="10"/>
-      <c r="BT27" s="10"/>
-      <c r="BU27" s="10"/>
-      <c r="BV27" s="10"/>
-      <c r="BW27" s="10"/>
-      <c r="BX27" s="10"/>
     </row>
-    <row r="28" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
@@ -5700,7 +5672,7 @@
       <c r="BK28" s="15"/>
       <c r="BL28" s="10"/>
     </row>
-    <row r="29" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
@@ -5765,7 +5737,7 @@
       <c r="BK29" s="15"/>
       <c r="BL29" s="10"/>
     </row>
-    <row r="30" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
@@ -5830,7 +5802,7 @@
       <c r="BK30" s="15"/>
       <c r="BL30" s="10"/>
     </row>
-    <row r="31" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:131" s="13" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
@@ -5895,74 +5867,9 @@
       <c r="BK31" s="15"/>
       <c r="BL31" s="10"/>
     </row>
-    <row r="32" spans="1:215" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="9"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
-      <c r="R32" s="15"/>
-      <c r="S32" s="15"/>
-      <c r="T32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="V32" s="15"/>
-      <c r="W32" s="15"/>
-      <c r="X32" s="15"/>
-      <c r="Y32" s="15"/>
-      <c r="Z32" s="15"/>
-      <c r="AA32" s="15"/>
-      <c r="AB32" s="15"/>
-      <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
-      <c r="AF32" s="15"/>
-      <c r="AG32" s="15"/>
-      <c r="AH32" s="15"/>
-      <c r="AI32" s="15"/>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="15"/>
-      <c r="AL32" s="15"/>
-      <c r="AM32" s="15"/>
-      <c r="AN32" s="15"/>
-      <c r="AO32" s="15"/>
-      <c r="AP32" s="15"/>
-      <c r="AQ32" s="15"/>
-      <c r="AR32" s="15"/>
-      <c r="AS32" s="15"/>
-      <c r="AT32" s="15"/>
-      <c r="AU32" s="15"/>
-      <c r="AV32" s="15"/>
-      <c r="AW32" s="15"/>
-      <c r="AX32" s="15"/>
-      <c r="AY32" s="15"/>
-      <c r="AZ32" s="15"/>
-      <c r="BA32" s="15"/>
-      <c r="BB32" s="15"/>
-      <c r="BC32" s="15"/>
-      <c r="BD32" s="15"/>
-      <c r="BE32" s="15"/>
-      <c r="BF32" s="15"/>
-      <c r="BG32" s="15"/>
-      <c r="BH32" s="15"/>
-      <c r="BI32" s="15"/>
-      <c r="BJ32" s="15"/>
-      <c r="BK32" s="15"/>
-      <c r="BL32" s="10"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:HG32">
-    <sortCondition ref="A3:A32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:HG31">
+    <sortCondition ref="A3:A31"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1" gridLines="1"/>
